--- a/apps/reports/excell/nats_project_template.xlsx
+++ b/apps/reports/excell/nats_project_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C32D5A2D-9AA8-40BA-9C4E-1AFAF095CE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7352D4D-CF96-4E3E-A73C-89869EFC230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_год" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$руб.-419];[Red]\-#,##0.00\ [$руб.-419]"/>
-    <numFmt numFmtId="167" formatCode="\ #,##0.00&quot;   &quot;;\-#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;@\ "/>
-    <numFmt numFmtId="168" formatCode="mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$руб.-419];[Red]\-#,##0.00\ [$руб.-419]"/>
+    <numFmt numFmtId="165" formatCode="\ #,##0.00&quot;   &quot;;\-#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;@\ "/>
+    <numFmt numFmtId="166" formatCode="mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -778,22 +778,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -1011,7 +1011,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1029,7 +1029,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,13 +1068,28 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,45 +1108,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3C53B-C19E-47CF-A15E-E992CE3CB9EE}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1899,24 +1899,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="9.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1929,57 +1929,57 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="73.150000000000006" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="132" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1989,26 +1989,26 @@
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="F8" s="19"/>
@@ -2025,11 +2025,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:E2"/>
@@ -2038,6 +2033,11 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.11805555555555555" right="0" top="0.15763888888888888" bottom="0.15763888888888888" header="0.15763888888888888" footer="0.15763888888888888"/>
   <pageSetup paperSize="77" scale="70" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2057,22 +2057,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
       <c r="O1" s="1">
         <v>2025</v>
       </c>
@@ -2099,13 +2099,13 @@
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="18">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2139,18 +2139,18 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="18">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2177,138 +2177,138 @@
       <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="37" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39" t="s">
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="X5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="36" t="s">
+      <c r="Y5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="36" t="s">
+      <c r="AG5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
     </row>
     <row r="6" spans="1:36" ht="56.25" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2321,9 +2321,9 @@
       <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2336,9 +2336,9 @@
       <c r="O6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2351,9 +2351,9 @@
       <c r="V6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
       <c r="Z6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2366,9 +2366,9 @@
       <c r="AC6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
       <c r="AG6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2425,18 +2425,15 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
@@ -2447,15 +2444,18 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="77" scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/apps/reports/excell/nats_project_template.xlsx
+++ b/apps/reports/excell/nats_project_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7352D4D-CF96-4E3E-A73C-89869EFC230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBEDF7-A6AC-4988-B0F7-C62EEF8E9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
   </bookViews>
@@ -1013,127 +1013,122 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="284">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{CCD57AC0-9197-4AC0-B98D-D950FD824020}"/>
@@ -1874,10 +1869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3C53B-C19E-47CF-A15E-E992CE3CB9EE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1898,129 +1896,129 @@
     <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="9.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="26" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:11" ht="18.75">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="1:11" ht="73.150000000000006" customHeight="1">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="132" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:11" ht="117.75">
+      <c r="A6" s="28"/>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2040,7 +2038,7 @@
     <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.11805555555555555" right="0" top="0.15763888888888888" bottom="0.15763888888888888" header="0.15763888888888888" footer="0.15763888888888888"/>
-  <pageSetup paperSize="77" scale="70" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="77" scale="74" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2052,9 +2050,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.7109375" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="12.75" customHeight="1">
       <c r="A1" s="39" t="s">
@@ -2099,21 +2094,21 @@
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2139,288 +2134,288 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="18">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
     </row>
     <row r="4" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="35" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="37" t="s">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
     </row>
     <row r="5" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34" t="s">
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AE5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="34" t="s">
+      <c r="AF5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="34" t="s">
+      <c r="AG5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
     </row>
     <row r="6" spans="1:36" ht="56.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="8" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="8" t="s">
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="8" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="8" t="s">
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="38.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2450,12 +2445,12 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="77" scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/apps/reports/excell/nats_project_template.xlsx
+++ b/apps/reports/excell/nats_project_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBEDF7-A6AC-4988-B0F7-C62EEF8E9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49952D-AFEC-482F-93A3-9B01154B71A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
   </bookViews>
   <sheets>
     <sheet name="2025_год" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t xml:space="preserve">Национальный проект "Культура". Муниципальная программа "Культура и туризм". Показатели </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2025 год</t>
   </si>
   <si>
     <t xml:space="preserve">Библиотеки   </t>
@@ -1104,9 +1101,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,19 +1126,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="284">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{CCD57AC0-9197-4AC0-B98D-D950FD824020}"/>
@@ -1875,7 +1872,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1928,17 +1925,15 @@
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="18.75">
       <c r="A4" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1953,39 +1948,39 @@
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>5</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>6</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>7</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="117.75">
       <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2052,22 +2047,22 @@
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="A1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="1">
         <v>2025</v>
       </c>
@@ -2095,7 +2090,7 @@
     </row>
     <row r="2" spans="1:36" ht="18">
       <c r="A2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -2134,18 +2129,18 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="18">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2172,214 +2167,214 @@
       <c r="AJ3" s="4"/>
     </row>
     <row r="4" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="33" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34" t="s">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
     </row>
     <row r="5" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="K5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="L5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32" t="s">
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="Y5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32" t="s">
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AF5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="32" t="s">
+      <c r="AG5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
     </row>
     <row r="6" spans="1:36" ht="56.25" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
       <c r="Z6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AC6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
       <c r="AG6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AI6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="38.25">
       <c r="A7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2420,15 +2415,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
@@ -2445,12 +2437,15 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="77" scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
